--- a/opcion-modulos-paneles/www/data/diccionario_cod.variable.xlsx
+++ b/opcion-modulos-paneles/www/data/diccionario_cod.variable.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Guido\Trabajo\Repositorios de R\Repos Propios\ceped-data\shiny\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ceped-data\opcion-modulos-paneles\www\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B913F9-F06A-400A-B91D-820A0AAB6F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7810603E-B659-465B-A920-C79F2C78A97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -295,18 +293,6 @@
     <t>subocupados_abs</t>
   </si>
   <si>
-    <t>Desocupados (valores absolutos)</t>
-  </si>
-  <si>
-    <t>Ocupados (valores absolutos)</t>
-  </si>
-  <si>
-    <t>Pea (valores absolutos)</t>
-  </si>
-  <si>
-    <t>Subocupados (valores absolutos)</t>
-  </si>
-  <si>
     <t>t_actividad</t>
   </si>
   <si>
@@ -536,6 +522,18 @@
   </si>
   <si>
     <t>Cociente entre el TCN y PPA consumo privado</t>
+  </si>
+  <si>
+    <t>Desocupados</t>
+  </si>
+  <si>
+    <t>Ocupados</t>
+  </si>
+  <si>
+    <t>PEA</t>
+  </si>
+  <si>
+    <t>Subocupados</t>
   </si>
 </sst>
 </file>
@@ -871,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,16 +939,16 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -969,16 +967,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1025,16 +1023,16 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1348,13 +1346,13 @@
         <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
         <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1362,13 +1360,13 @@
         <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="C40" t="s">
         <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1376,13 +1374,13 @@
         <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="C41" t="s">
         <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1390,307 +1388,307 @@
         <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
         <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
         <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
         <v>82</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
         <v>82</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
         <v>82</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D52" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D53" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C54" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D54" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D55" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D56" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B57" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D58" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D59" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D60" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C61" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D62" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C63" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D63" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/opcion-modulos-paneles/www/data/diccionario_cod.variable.xlsx
+++ b/opcion-modulos-paneles/www/data/diccionario_cod.variable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ceped-data\opcion-modulos-paneles\www\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facun\OneDrive\Documentos\GitHub\ceped-data\opcion-modulos-paneles\www\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7810603E-B659-465B-A920-C79F2C78A97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EF7A92-12B0-480D-9979-859608C4E171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2790" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -446,24 +446,6 @@
     <t>Total  (valores absolutos)</t>
   </si>
   <si>
-    <t>Patrón  (porcentaje)</t>
-  </si>
-  <si>
-    <t>Cuenta Propia (porcentaje)</t>
-  </si>
-  <si>
-    <t>Asalariado  (porcentaje)</t>
-  </si>
-  <si>
-    <t>Trab Fliar s/salario  (porcentaje)</t>
-  </si>
-  <si>
-    <t>Desconocido  (porcentaje)</t>
-  </si>
-  <si>
-    <t>Total  (porcentaje)</t>
-  </si>
-  <si>
     <t>Cantidad absoluta de personas ocupadas como patrones. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
   </si>
   <si>
@@ -534,6 +516,24 @@
   </si>
   <si>
     <t>Subocupados</t>
+  </si>
+  <si>
+    <t>Patrón</t>
+  </si>
+  <si>
+    <t>Cuenta Propia</t>
+  </si>
+  <si>
+    <t>Asalariado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trab Fliar s/salario </t>
+  </si>
+  <si>
+    <t>Desconocido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
   </si>
 </sst>
 </file>
@@ -870,7 +870,7 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,16 +939,16 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -967,16 +967,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1023,16 +1023,16 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1346,7 +1346,7 @@
         <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C39" t="s">
         <v>82</v>
@@ -1360,7 +1360,7 @@
         <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C40" t="s">
         <v>82</v>
@@ -1374,7 +1374,7 @@
         <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
         <v>82</v>
@@ -1388,7 +1388,7 @@
         <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
         <v>82</v>
@@ -1534,7 +1534,7 @@
         <v>119</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1548,7 +1548,7 @@
         <v>119</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1562,7 +1562,7 @@
         <v>119</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1576,7 +1576,7 @@
         <v>119</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1590,7 +1590,7 @@
         <v>119</v>
       </c>
       <c r="D56" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1612,13 +1612,13 @@
         <v>126</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="C58" t="s">
         <v>119</v>
       </c>
       <c r="D58" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1626,13 +1626,13 @@
         <v>127</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="C59" t="s">
         <v>119</v>
       </c>
       <c r="D59" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1640,13 +1640,13 @@
         <v>128</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="C60" t="s">
         <v>119</v>
       </c>
       <c r="D60" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1654,13 +1654,13 @@
         <v>129</v>
       </c>
       <c r="B61" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="C61" t="s">
         <v>119</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1668,13 +1668,13 @@
         <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="C62" t="s">
         <v>119</v>
       </c>
       <c r="D62" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1682,13 +1682,13 @@
         <v>131</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="C63" t="s">
         <v>119</v>
       </c>
       <c r="D63" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/opcion-modulos-paneles/www/data/diccionario_cod.variable.xlsx
+++ b/opcion-modulos-paneles/www/data/diccionario_cod.variable.xlsx
@@ -5,22 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facun\OneDrive\Documentos\GitHub\ceped-data\opcion-modulos-paneles\www\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\CEPED home office\ceped-data\opcion-modulos-paneles\www\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EF7A92-12B0-480D-9979-859608C4E171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A9FF06-A05D-497C-AD31-18B4DAA7A2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2790" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="175">
   <si>
     <t>IPC_2005</t>
   </si>
@@ -534,6 +536,27 @@
   </si>
   <si>
     <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>IPC_Anual_2017</t>
+  </si>
+  <si>
+    <t>IPC_Mensual_2006</t>
+  </si>
+  <si>
+    <t>IPC Mensual (Enero 2006 = 100)</t>
+  </si>
+  <si>
+    <t>IPC_Argentina</t>
+  </si>
+  <si>
+    <t>IPC Anual (2017 = 100)</t>
+  </si>
+  <si>
+    <t>Esta variable indica la evolución anual del Índices de Precios al Consumidor para GBA (2017 = 100).</t>
+  </si>
+  <si>
+    <t>Esta variable indica la evolución mensual del Índices de Precios al Consumidor para GBA (Enero 2006 = 100).</t>
   </si>
 </sst>
 </file>
@@ -867,21 +890,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="68.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="71.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="68.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="71.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -895,7 +918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -909,7 +932,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -923,7 +946,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -937,7 +960,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -951,7 +974,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -965,7 +988,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -979,7 +1002,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -993,7 +1016,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1007,7 +1030,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1021,7 +1044,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -1035,7 +1058,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1049,7 +1072,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1063,7 +1086,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1077,7 +1100,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1088,7 +1111,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1099,7 +1122,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1110,7 +1133,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1121,7 +1144,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1132,7 +1155,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1143,7 +1166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1154,7 +1177,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1165,7 +1188,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1176,7 +1199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1187,7 +1210,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1198,7 +1221,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1209,7 +1232,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -1220,7 +1243,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -1231,7 +1254,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -1242,7 +1265,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -1253,7 +1276,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -1264,7 +1287,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -1275,7 +1298,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -1286,7 +1309,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -1297,7 +1320,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -1308,7 +1331,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -1319,7 +1342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -1330,7 +1353,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -1341,7 +1364,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -1355,7 +1378,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -1369,7 +1392,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -1383,7 +1406,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -1397,7 +1420,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -1411,7 +1434,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -1425,7 +1448,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -1439,7 +1462,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -1453,7 +1476,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -1467,7 +1490,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -1481,7 +1504,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>98</v>
       </c>
@@ -1495,7 +1518,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -1509,7 +1532,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -1523,7 +1546,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>120</v>
       </c>
@@ -1537,7 +1560,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -1551,7 +1574,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>122</v>
       </c>
@@ -1565,7 +1588,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>123</v>
       </c>
@@ -1579,7 +1602,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>124</v>
       </c>
@@ -1593,7 +1616,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>125</v>
       </c>
@@ -1607,7 +1630,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>126</v>
       </c>
@@ -1621,7 +1644,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>127</v>
       </c>
@@ -1635,7 +1658,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>128</v>
       </c>
@@ -1649,7 +1672,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>129</v>
       </c>
@@ -1663,7 +1686,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>130</v>
       </c>
@@ -1677,7 +1700,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -1689,6 +1712,34 @@
       </c>
       <c r="D63" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>168</v>
+      </c>
+      <c r="B64" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>169</v>
+      </c>
+      <c r="B65" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" t="s">
+        <v>171</v>
+      </c>
+      <c r="D65" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/opcion-modulos-paneles/www/data/diccionario_cod.variable.xlsx
+++ b/opcion-modulos-paneles/www/data/diccionario_cod.variable.xlsx
@@ -5,24 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\CEPED home office\ceped-data\opcion-modulos-paneles\www\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facun\OneDrive\Documentos\GitHub\ceped-data\opcion-modulos-paneles\www\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A9FF06-A05D-497C-AD31-18B4DAA7A2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F18758F-B660-4C64-9DB9-B198ED919D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2790" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -32,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="155">
   <si>
     <t>IPC_2005</t>
   </si>
@@ -394,24 +392,6 @@
     <t>eph_mercado_de_trabajo_categoria_ocupacional</t>
   </si>
   <si>
-    <t>patron</t>
-  </si>
-  <si>
-    <t>cuenta_propia</t>
-  </si>
-  <si>
-    <t>asalariado</t>
-  </si>
-  <si>
-    <t>TFSS</t>
-  </si>
-  <si>
-    <t>desconocido</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>porc_patron</t>
   </si>
   <si>
@@ -427,60 +407,6 @@
     <t>porc_esconocido</t>
   </si>
   <si>
-    <t>porc_total</t>
-  </si>
-  <si>
-    <t>Patrón  (valores absolutos)</t>
-  </si>
-  <si>
-    <t>Cuenta Propia (valores absolutos)</t>
-  </si>
-  <si>
-    <t>Asalariado  (valores absolutos)</t>
-  </si>
-  <si>
-    <t>Trab Fliar s/salario  (valores absolutos)</t>
-  </si>
-  <si>
-    <t>Desconocido  (valores absolutos)</t>
-  </si>
-  <si>
-    <t>Total  (valores absolutos)</t>
-  </si>
-  <si>
-    <t>Cantidad absoluta de personas ocupadas como patrones. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
-  </si>
-  <si>
-    <t>Cantidad absoluta de personas ocupadas como cuentapropistas. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
-  </si>
-  <si>
-    <t>Cantidad absoluta de personas ocupadas como asalariadas. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
-  </si>
-  <si>
-    <t>Cantidad absoluta de personas ocupadas como trabajador familiar sin salario. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
-  </si>
-  <si>
-    <t>Cantidad absoluta de personas ocupadas con categoría ocupacional desconocida. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
-  </si>
-  <si>
-    <t>Porcentaje de personas ocupadas como patrones. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
-  </si>
-  <si>
-    <t>Porcentaje de personas ocupadas como cuentapropistas. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
-  </si>
-  <si>
-    <t>Porcentaje de personas ocupadas como asalariadas. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
-  </si>
-  <si>
-    <t>Porcentaje de personas ocupadas como trabajador familiar sin salario. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
-  </si>
-  <si>
-    <t>Porcentaje de personas ocupadas con categoría ocupacional desconocida. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
-  </si>
-  <si>
-    <t>Porcentaje total de personas ocupadas. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
-  </si>
-  <si>
     <t>Salario en dolares corrientes</t>
   </si>
   <si>
@@ -529,15 +455,9 @@
     <t>Asalariado</t>
   </si>
   <si>
-    <t xml:space="preserve">Trab Fliar s/salario </t>
-  </si>
-  <si>
     <t>Desconocido</t>
   </si>
   <si>
-    <t xml:space="preserve">Total </t>
-  </si>
-  <si>
     <t>IPC_Anual_2017</t>
   </si>
   <si>
@@ -557,6 +477,24 @@
   </si>
   <si>
     <t>Esta variable indica la evolución mensual del Índices de Precios al Consumidor para GBA (Enero 2006 = 100).</t>
+  </si>
+  <si>
+    <t>Porcentaje de personas ocupadas como patrones.</t>
+  </si>
+  <si>
+    <t>Porcentaje de personas ocupadas como cuentapropistas.</t>
+  </si>
+  <si>
+    <t>Porcentaje de personas ocupadas como asalariadas.</t>
+  </si>
+  <si>
+    <t>Porcentaje de personas ocupadas con categoría ocupacional desconocida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje de personas ocupadas como trabajador familiar sin salario. </t>
+  </si>
+  <si>
+    <t>Trab Fliar s/salario</t>
   </si>
 </sst>
 </file>
@@ -890,21 +828,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="2" width="68.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" customWidth="1"/>
-    <col min="4" max="4" width="71.33203125" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="68.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="71.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -918,7 +856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -932,7 +870,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -946,7 +884,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -960,21 +898,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -988,21 +926,21 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1016,7 +954,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1030,7 +968,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1044,21 +982,21 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1072,7 +1010,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1086,7 +1024,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1100,7 +1038,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1111,7 +1049,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1122,7 +1060,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1133,7 +1071,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1144,7 +1082,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1155,7 +1093,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1166,7 +1104,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1177,7 +1115,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1188,7 +1126,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1199,7 +1137,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1210,7 +1148,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1221,7 +1159,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1232,7 +1170,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -1243,7 +1181,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -1254,7 +1192,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -1265,7 +1203,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -1276,7 +1214,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -1287,7 +1225,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -1298,7 +1236,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -1309,7 +1247,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -1320,7 +1258,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -1331,7 +1269,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -1342,7 +1280,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -1353,7 +1291,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -1364,12 +1302,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C39" t="s">
         <v>82</v>
@@ -1378,12 +1316,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
         <v>82</v>
@@ -1392,12 +1330,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
         <v>82</v>
@@ -1406,12 +1344,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C42" t="s">
         <v>82</v>
@@ -1420,7 +1358,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -1434,7 +1372,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -1448,7 +1386,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -1462,7 +1400,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -1476,7 +1414,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -1490,7 +1428,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -1504,7 +1442,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>98</v>
       </c>
@@ -1518,7 +1456,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -1532,7 +1470,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -1546,200 +1484,102 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>120</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
         <v>119</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C53" t="s">
         <v>119</v>
       </c>
       <c r="D53" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C54" t="s">
         <v>119</v>
       </c>
       <c r="D54" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>123</v>
       </c>
       <c r="B55" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="C55" t="s">
         <v>119</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>124</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C56" t="s">
         <v>119</v>
       </c>
       <c r="D56" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>125</v>
-      </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B58" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="D58" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>127</v>
-      </c>
-      <c r="B59" t="s">
-        <v>163</v>
-      </c>
-      <c r="C59" t="s">
-        <v>119</v>
-      </c>
-      <c r="D59" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>128</v>
-      </c>
-      <c r="B60" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" t="s">
-        <v>119</v>
-      </c>
-      <c r="D60" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>129</v>
-      </c>
-      <c r="B61" t="s">
-        <v>165</v>
-      </c>
-      <c r="C61" t="s">
-        <v>119</v>
-      </c>
-      <c r="D61" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>130</v>
-      </c>
-      <c r="B62" t="s">
-        <v>166</v>
-      </c>
-      <c r="C62" t="s">
-        <v>119</v>
-      </c>
-      <c r="D62" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>131</v>
-      </c>
-      <c r="B63" t="s">
-        <v>167</v>
-      </c>
-      <c r="C63" t="s">
-        <v>119</v>
-      </c>
-      <c r="D63" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>168</v>
-      </c>
-      <c r="B64" t="s">
-        <v>172</v>
-      </c>
-      <c r="C64" t="s">
-        <v>171</v>
-      </c>
-      <c r="D64" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>169</v>
-      </c>
-      <c r="B65" t="s">
-        <v>170</v>
-      </c>
-      <c r="C65" t="s">
-        <v>171</v>
-      </c>
-      <c r="D65" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/opcion-modulos-paneles/www/data/diccionario_cod.variable.xlsx
+++ b/opcion-modulos-paneles/www/data/diccionario_cod.variable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facun\OneDrive\Documentos\GitHub\ceped-data\opcion-modulos-paneles\www\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Guido\Trabajo\Repositorios de R\Repos Propios\ceped-data\opcion-modulos-paneles\www\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F18758F-B660-4C64-9DB9-B198ED919D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A997923-878F-4E6C-934E-F7C06A5CCBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2790" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="161">
   <si>
     <t>IPC_2005</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Salario.UMN</t>
   </si>
   <si>
-    <t>salario_real_2005</t>
-  </si>
-  <si>
     <t>salario_ppa_c_priv_corr</t>
   </si>
   <si>
@@ -74,12 +71,6 @@
     <t>Salario PPA consumo privado precios corriente</t>
   </si>
   <si>
-    <t>Salario relativo a USA consumo privado</t>
-  </si>
-  <si>
-    <t>Salario relativo a USA consumo efectivo</t>
-  </si>
-  <si>
     <t>base</t>
   </si>
   <si>
@@ -95,15 +86,6 @@
     <t>Coeficiente PPA consumo privado</t>
   </si>
   <si>
-    <t>indice_salario_real_2005</t>
-  </si>
-  <si>
-    <t>Salario real (2005  = 100) en unidad monetaria nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indice Salario real (2005 = 100) </t>
-  </si>
-  <si>
     <t>TCNA_DL_Ferreres</t>
   </si>
   <si>
@@ -254,24 +236,12 @@
     <t>Esta variable indica el salario nominal doblemente bruto  en unidades de moneda nacional que surge de las estimaciones de Cuentas Nacionales de los respectivos países. Es el equivalente al cociente entre la masa salarial y la cantidad de asalariados promedio del año. Expresado en términos mensuales</t>
   </si>
   <si>
-    <t>Esta variable indica el salario real doblemente bruto  en unidades de moneda nacional que surge de las estimaciones de Cuentas Nacionales de los respectivos países. Es el equivalente al cociente entre la masa salarial y la cantidad de asalariados promedio del año, ajustada por la evolución anual del Índice de Precios al Consumidor de cada país.</t>
-  </si>
-  <si>
     <t>Esta variable indica el salario doblemente bruto en unidades de moneda de paridad de poder adquisitivo correspondientes al agregado "consumo privado". Se construye a partir del cociente entre las variables Salario.UMN y PPA_c_priv_serie</t>
   </si>
   <si>
     <t>Esta variable indica el salario doblemente bruto en unidades de moneda de paridad de poder adquisitivo correspondientes al agregado "consumo actual". Se construye a partir del cociente entre las variables "Salario.UMN" y "PPA_c_actual_serie"</t>
   </si>
   <si>
-    <t>Esta variable indica el salario doblemente bruto en unidades de moneda de paridad de poder adquisitivo correspondientes al agregado "consumo privado" expresado en términos relativos al salario de Estados Unidos.</t>
-  </si>
-  <si>
-    <t>Esta variable indica el salario doblemente bruto en unidades de moneda de paridad de poder adquisitivo correspondientes al agregado "consumo actual" expresado en términos relativos al salario de Estados Unidos.</t>
-  </si>
-  <si>
-    <t>Esta variable presenta un índice de evolución del salario real doblemente bruto  que surge de las estimaciones de Cuentas Nacionales y de los Índices de Precios al Consumidor de los respectivos países (2005 = 100).</t>
-  </si>
-  <si>
     <t>Esta variable indica la evolución del Índices de Precios al Consumidor de los respectivos países (2005 = 100).</t>
   </si>
   <si>
@@ -495,6 +465,54 @@
   </si>
   <si>
     <t>Trab Fliar s/salario</t>
+  </si>
+  <si>
+    <t>indice_salario_real_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indice Salario real (2017 = 100) </t>
+  </si>
+  <si>
+    <t>Esta variable presenta un índice de evolución del salario real doblemente bruto  que surge de las estimaciones de Cuentas Nacionales y de los Índices de Precios al Consumidor de los respectivos países (2017 = 100).</t>
+  </si>
+  <si>
+    <t>salario_ppa_c_priv_real</t>
+  </si>
+  <si>
+    <t>salario_ppa_c_actual_real</t>
+  </si>
+  <si>
+    <t>salario_real_2017</t>
+  </si>
+  <si>
+    <t>Salario real (2017  = 100) en unidad monetaria nacional</t>
+  </si>
+  <si>
+    <t>Esta variable indica el salario real doblemente bruto promedio en unidades de moneda nacional que surge de las estimaciones de Cuentas Nacionales de los respectivos países. Es el equivalente al cociente entre la masa salarial y la cantidad de asalariados promedio del año, ajustada por la evolución anual del Índice de Precios al Consumidor de cada país.</t>
+  </si>
+  <si>
+    <t>Esta variable indica el salario doblemente bruto promedio en dólares de paridad de poder adquisitivo (PPA) del año 2017. Utiliza el coeficiente PPA correspondientes al agregado "consumo privado".</t>
+  </si>
+  <si>
+    <t>Esta variable indica el salario doblemente bruto promedio en dólares de paridad de poder adquisitivo (PPA) del año 2017. Utiliza el coeficiente PPA correspondientes al agregado "consumo actual".</t>
+  </si>
+  <si>
+    <t>Salario real en dólares de paridad de poder adquisitivo de 2017 (PPA de consumo privado)</t>
+  </si>
+  <si>
+    <t>Salario real en dólares de paridad de poder adquisitivo de 2017 (PPA de consumo actual)</t>
+  </si>
+  <si>
+    <t>Esta variable indica el salario doblemente bruto promedio en unidades de moneda de paridad de poder adquisitivo correspondientes al agregado "consumo privado" expresado en términos relativos al salario de Estados Unidos (EE.UU = 1).</t>
+  </si>
+  <si>
+    <t>Esta variable indica el salario doblemente bruto promedio en unidades de moneda de paridad de poder adquisitivo correspondientes al agregado "consumo actual" expresado en términos relativos al salario de Estados Unidos (EE.UU = 1).</t>
+  </si>
+  <si>
+    <t>Salario relativo a EE.UU. (PPA de consumo privado)</t>
+  </si>
+  <si>
+    <t>Salario relativo a EE.UU. (PPA de consumo efectivo)</t>
   </si>
 </sst>
 </file>
@@ -828,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,16 +862,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -861,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -875,13 +893,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -889,27 +907,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -917,669 +935,697 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
         <v>58</v>
       </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
         <v>59</v>
       </c>
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
         <v>60</v>
       </c>
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
         <v>61</v>
       </c>
-      <c r="B36" t="s">
-        <v>65</v>
-      </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
         <v>62</v>
       </c>
-      <c r="B37" t="s">
-        <v>69</v>
-      </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D45" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D49" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D50" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D51" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C54" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D55" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" t="s">
         <v>141</v>
-      </c>
-      <c r="C56" t="s">
-        <v>119</v>
-      </c>
-      <c r="D56" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="D57" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="D58" t="s">
-        <v>148</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/opcion-modulos-paneles/www/data/diccionario_cod.variable.xlsx
+++ b/opcion-modulos-paneles/www/data/diccionario_cod.variable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Guido\Trabajo\Repositorios de R\Repos Propios\ceped-data\opcion-modulos-paneles\www\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\CEPED home office\ceped-data\opcion-modulos-paneles\www\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A997923-878F-4E6C-934E-F7C06A5CCBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B0B50D-F6B9-446C-AB4F-EC2612F9535B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="167">
   <si>
     <t>IPC_2005</t>
   </si>
@@ -443,12 +443,6 @@
     <t>IPC Anual (2017 = 100)</t>
   </si>
   <si>
-    <t>Esta variable indica la evolución anual del Índices de Precios al Consumidor para GBA (2017 = 100).</t>
-  </si>
-  <si>
-    <t>Esta variable indica la evolución mensual del Índices de Precios al Consumidor para GBA (Enero 2006 = 100).</t>
-  </si>
-  <si>
     <t>Porcentaje de personas ocupadas como patrones.</t>
   </si>
   <si>
@@ -513,6 +507,30 @@
   </si>
   <si>
     <t>Salario relativo a EE.UU. (PPA de consumo efectivo)</t>
+  </si>
+  <si>
+    <t>Trimestres_EPH_2017</t>
+  </si>
+  <si>
+    <t>Ondas_EPH_2017</t>
+  </si>
+  <si>
+    <t>IPC Trimestral (2017 = 100) - para deflctar datos de EPH</t>
+  </si>
+  <si>
+    <t>IPC por Ondas (2017 = 100) - para deflctar datos de EPH</t>
+  </si>
+  <si>
+    <t>Esta variable indica la evolución mensual del Índice de Precios al Consumidor para GBA (Enero 2006 = 100).</t>
+  </si>
+  <si>
+    <t>Esta variable indica la evolución anual del Índice de Precios al Consumidor para GBA (2017 = 100).</t>
+  </si>
+  <si>
+    <t>Esta variable indica la evolución del Índice de Precios al Consumidor para GBA (2017 = 100). Se han promediado los valores mensuales para facilitar su uso para deflactar los datos de ingresos de la EPH.</t>
+  </si>
+  <si>
+    <t>Esta variable indica la evolución anual del Índices de Precios al Consumidor para GBA (2017 = 100). Se han promediado los valores mensuales para facilitar su uso para deflactar los datos de ingresos de la EPH.</t>
   </si>
 </sst>
 </file>
@@ -846,21 +864,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="68.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="71.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="68.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="71.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -874,7 +892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -888,7 +906,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -902,7 +920,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -916,7 +934,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -930,7 +948,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -944,7 +962,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -958,21 +976,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -986,7 +1004,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1000,35 +1018,35 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -1042,49 +1060,49 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1095,7 +1113,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1106,7 +1124,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1117,7 +1135,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1128,7 +1146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1139,7 +1157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1150,7 +1168,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1161,7 +1179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1172,7 +1190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1183,7 +1201,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1194,7 +1212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1205,7 +1223,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1216,7 +1234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1227,7 +1245,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1238,7 +1256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1249,7 +1267,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -1260,7 +1278,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1271,7 +1289,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -1282,7 +1300,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -1293,7 +1311,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -1304,7 +1322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -1315,7 +1333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -1326,7 +1344,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1337,7 +1355,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -1348,7 +1366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -1362,7 +1380,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -1376,7 +1394,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -1390,7 +1408,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -1404,7 +1422,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -1418,7 +1436,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -1432,7 +1450,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -1446,7 +1464,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -1460,7 +1478,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -1474,7 +1492,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -1488,7 +1506,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -1502,7 +1520,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -1516,7 +1534,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>90</v>
       </c>
@@ -1530,7 +1548,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>110</v>
       </c>
@@ -1541,10 +1559,10 @@
         <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>111</v>
       </c>
@@ -1555,10 +1573,10 @@
         <v>109</v>
       </c>
       <c r="D55" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -1569,24 +1587,24 @@
         <v>109</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>113</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C57" t="s">
         <v>109</v>
       </c>
       <c r="D57" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -1597,10 +1615,10 @@
         <v>109</v>
       </c>
       <c r="D58" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>132</v>
       </c>
@@ -1611,10 +1629,10 @@
         <v>135</v>
       </c>
       <c r="D59" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>133</v>
       </c>
@@ -1625,7 +1643,35 @@
         <v>135</v>
       </c>
       <c r="D60" t="s">
-        <v>138</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/opcion-modulos-paneles/www/data/diccionario_cod.variable.xlsx
+++ b/opcion-modulos-paneles/www/data/diccionario_cod.variable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\CEPED home office\ceped-data\opcion-modulos-paneles\www\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facun\OneDrive\Documentos\GitHub\ceped-data\opcion-modulos-paneles\www\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B0B50D-F6B9-446C-AB4F-EC2612F9535B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDF3CDB-AC43-449B-B3A7-416FE9870A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="1485" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="156">
   <si>
     <t>IPC_2005</t>
   </si>
@@ -248,117 +248,6 @@
     <t>Indice de Precios al Consumidor (base 2005)</t>
   </si>
   <si>
-    <t>Mercado_de_Trabajo_Arg</t>
-  </si>
-  <si>
-    <t>desocupados_abs</t>
-  </si>
-  <si>
-    <t>ocupados_abs</t>
-  </si>
-  <si>
-    <t>pea_abs</t>
-  </si>
-  <si>
-    <t>subocupados_abs</t>
-  </si>
-  <si>
-    <t>t_actividad</t>
-  </si>
-  <si>
-    <t>Tasa de actividad</t>
-  </si>
-  <si>
-    <t>Tasa de empleo</t>
-  </si>
-  <si>
-    <t>t_empleo</t>
-  </si>
-  <si>
-    <t>t_desocupacion</t>
-  </si>
-  <si>
-    <t>t_subocupacion</t>
-  </si>
-  <si>
-    <t>Tasa de desocupación</t>
-  </si>
-  <si>
-    <t>Tasa de subocupación</t>
-  </si>
-  <si>
-    <t>Poblacion_eph</t>
-  </si>
-  <si>
-    <t>28_Aglomerados</t>
-  </si>
-  <si>
-    <t>Resto_Urbano</t>
-  </si>
-  <si>
-    <t>Total_Urbano</t>
-  </si>
-  <si>
-    <t>Total_Rural</t>
-  </si>
-  <si>
-    <t>Total_País</t>
-  </si>
-  <si>
-    <t>Población 28 Aglomerados</t>
-  </si>
-  <si>
-    <t>Población Resto Urbano</t>
-  </si>
-  <si>
-    <t>Población Total Urbano</t>
-  </si>
-  <si>
-    <t>Población Total Rural</t>
-  </si>
-  <si>
-    <t>Población Total País</t>
-  </si>
-  <si>
-    <t>Cantidad absoluta de personas desocupadas. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
-  </si>
-  <si>
-    <t>Cantidad absoluta de personas ocupadas. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
-  </si>
-  <si>
-    <t>Cantidad absoluta de personas en la Población Económicamente Activa. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
-  </si>
-  <si>
-    <t>Cantidad absoluta de personas subocupadas. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
-  </si>
-  <si>
-    <t>Tasa de Actividad. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
-  </si>
-  <si>
-    <t>Tasa de Empleo. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
-  </si>
-  <si>
-    <t>Tasa de Desocupación. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
-  </si>
-  <si>
-    <t>Tasa de Subocupación. Estimación del CEPED sobre datos de mercado de trabajo en base a la Encuesta Permanente de Hogares (EPH-INDEC). Estimaciones absolutas trimestrales para 28 aglomerados urbanos. Beneficiarios de planes sociales considerados como ocupados.</t>
-  </si>
-  <si>
-    <t>Población de 28 aglomerados urbanos.  Estimación del CEPED en base a la Encuesta Permanente de Hogares (EPH-INDEC) y proyecciones poblacionales del INDEC. Estimaciones absolutas trimestrales.</t>
-  </si>
-  <si>
-    <t>Población Resto Urbano.  Estimación del CEPED en base a la Encuesta Permanente de Hogares (EPH-INDEC) y proyecciones poblacionales del INDEC. Estimaciones absolutas trimestrales.</t>
-  </si>
-  <si>
-    <t>Población total urbana.  Estimación del CEPED en base a la Encuesta Permanente de Hogares (EPH-INDEC) y proyecciones poblacionales del INDEC. Estimaciones absolutas trimestrales.</t>
-  </si>
-  <si>
-    <t>Población total rural.  Estimación del CEPED en base a la Encuesta Permanente de Hogares (EPH-INDEC) y proyecciones poblacionales del INDEC. Estimaciones absolutas trimestrales.</t>
-  </si>
-  <si>
-    <t>Población total país.  Estimación del CEPED en base a la Encuesta Permanente de Hogares (EPH-INDEC) y proyecciones poblacionales del INDEC. Estimaciones absolutas trimestrales.</t>
-  </si>
-  <si>
     <t>eph_mercado_de_trabajo_categoria_ocupacional</t>
   </si>
   <si>
@@ -404,18 +293,6 @@
     <t>Cociente entre el TCN y PPA consumo privado</t>
   </si>
   <si>
-    <t>Desocupados</t>
-  </si>
-  <si>
-    <t>Ocupados</t>
-  </si>
-  <si>
-    <t>PEA</t>
-  </si>
-  <si>
-    <t>Subocupados</t>
-  </si>
-  <si>
     <t>Patrón</t>
   </si>
   <si>
@@ -531,6 +408,96 @@
   </si>
   <si>
     <t>Esta variable indica la evolución anual del Índices de Precios al Consumidor para GBA (2017 = 100). Se han promediado los valores mensuales para facilitar su uso para deflactar los datos de ingresos de la EPH.</t>
+  </si>
+  <si>
+    <t>t_actividad_puntual</t>
+  </si>
+  <si>
+    <t>t_empleo_puntual</t>
+  </si>
+  <si>
+    <t>t_desocupacion_puntual</t>
+  </si>
+  <si>
+    <t>t_subocupacion_puntual</t>
+  </si>
+  <si>
+    <t>t_actividad_continua</t>
+  </si>
+  <si>
+    <t>t_empleo_continua</t>
+  </si>
+  <si>
+    <t>t_desocupacion_continua</t>
+  </si>
+  <si>
+    <t>t_subocupacion_continua</t>
+  </si>
+  <si>
+    <t>Tasa de actividad (EPH continua)</t>
+  </si>
+  <si>
+    <t>Tasa de empleo (EPH continua)</t>
+  </si>
+  <si>
+    <t>Tasa de desocupación (EPH continua)</t>
+  </si>
+  <si>
+    <t>Tasa de subocupación  (EPH continua)</t>
+  </si>
+  <si>
+    <t>Tasa de actividad (EPH puntual)</t>
+  </si>
+  <si>
+    <t>Tasa de empleo (EPH puntual)</t>
+  </si>
+  <si>
+    <t>Tasa de desocupación (EPH puntual)</t>
+  </si>
+  <si>
+    <t>Tasa de subocupación (EPH puntual)</t>
+  </si>
+  <si>
+    <t>eph_tasas_basicas</t>
+  </si>
+  <si>
+    <t>t_precario_puntual</t>
+  </si>
+  <si>
+    <t>t_protegido_puntual</t>
+  </si>
+  <si>
+    <t>t_desconocido_puntual</t>
+  </si>
+  <si>
+    <t>t_precario_continua</t>
+  </si>
+  <si>
+    <t>t_protegido_continua</t>
+  </si>
+  <si>
+    <t>t_desconocido_continua</t>
+  </si>
+  <si>
+    <t>Tasa de empleo protegido (EPH puntual)</t>
+  </si>
+  <si>
+    <t>Desconocido (EPH puntual)</t>
+  </si>
+  <si>
+    <t>Tasa de empleo precario (EPH continua)</t>
+  </si>
+  <si>
+    <t>Tasa de empleo protegido (EPH continua)</t>
+  </si>
+  <si>
+    <t>Desconocido (EPH continua)</t>
+  </si>
+  <si>
+    <t>eph_precariedad</t>
+  </si>
+  <si>
+    <t>Tasa de empleo precario (EPH puntual)</t>
   </si>
 </sst>
 </file>
@@ -864,21 +831,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="2" width="68.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" customWidth="1"/>
-    <col min="4" max="4" width="71.33203125" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="68.5703125" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" customWidth="1"/>
+    <col min="4" max="4" width="71.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -892,7 +859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -906,7 +873,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -920,7 +887,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -934,21 +901,21 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -962,35 +929,35 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1004,7 +971,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1018,91 +985,91 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1113,7 +1080,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1124,7 +1091,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1135,7 +1102,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1146,7 +1113,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1157,7 +1124,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1168,7 +1135,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1179,7 +1146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1190,7 +1157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1201,7 +1168,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1212,7 +1179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1223,7 +1190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1234,7 +1201,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1245,7 +1212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1256,7 +1223,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1267,7 +1234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -1278,7 +1245,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1289,7 +1256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -1300,7 +1267,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -1311,7 +1278,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -1322,7 +1289,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -1333,7 +1300,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -1344,7 +1311,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1355,7 +1322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -1366,312 +1333,284 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>73</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" t="s">
         <v>124</v>
       </c>
-      <c r="C41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" t="s">
         <v>125</v>
       </c>
-      <c r="C42" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>89</v>
-      </c>
-      <c r="B52" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>90</v>
-      </c>
-      <c r="B53" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>110</v>
-      </c>
-      <c r="B54" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>112</v>
-      </c>
-      <c r="B56" t="s">
-        <v>130</v>
-      </c>
-      <c r="C56" t="s">
-        <v>109</v>
-      </c>
-      <c r="D56" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>113</v>
-      </c>
-      <c r="B57" t="s">
-        <v>142</v>
-      </c>
-      <c r="C57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D57" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="B58" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="C58" t="s">
-        <v>109</v>
-      </c>
-      <c r="D58" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
-      </c>
-      <c r="D59" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
-      </c>
-      <c r="D60" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B61" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C61" t="s">
-        <v>135</v>
-      </c>
-      <c r="D61" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B62" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C62" t="s">
-        <v>135</v>
-      </c>
-      <c r="D62" t="s">
-        <v>166</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/opcion-modulos-paneles/www/data/diccionario_cod.variable.xlsx
+++ b/opcion-modulos-paneles/www/data/diccionario_cod.variable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facun\OneDrive\Documentos\GitHub\ceped-data\opcion-modulos-paneles\www\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDF3CDB-AC43-449B-B3A7-416FE9870A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164FA44B-175F-4CC4-9738-65C4BB382C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="1485" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2790" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="166">
   <si>
     <t>IPC_2005</t>
   </si>
@@ -248,9 +248,6 @@
     <t>Indice de Precios al Consumidor (base 2005)</t>
   </si>
   <si>
-    <t>eph_mercado_de_trabajo_categoria_ocupacional</t>
-  </si>
-  <si>
     <t>porc_patron</t>
   </si>
   <si>
@@ -498,6 +495,39 @@
   </si>
   <si>
     <t>Tasa de empleo precario (EPH puntual)</t>
+  </si>
+  <si>
+    <t>eph_categoria_ocupacional</t>
+  </si>
+  <si>
+    <t>Patrón (s/planes)</t>
+  </si>
+  <si>
+    <t>Cuenta Propia (s/planes)</t>
+  </si>
+  <si>
+    <t>Asalariados públicos (s/planes)</t>
+  </si>
+  <si>
+    <t>Asalariados privados protegidos (s/ serv dom ni planes)</t>
+  </si>
+  <si>
+    <t>Asalariados privados precarios (s/ serv dom ni planes)</t>
+  </si>
+  <si>
+    <t>Serv dom (s/planes)</t>
+  </si>
+  <si>
+    <t>Trabajador familiar</t>
+  </si>
+  <si>
+    <t>Planes JJHD</t>
+  </si>
+  <si>
+    <t>Desconocidos</t>
+  </si>
+  <si>
+    <t>eph_categoria_ocupacional_pok</t>
   </si>
 </sst>
 </file>
@@ -831,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,16 +933,16 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -931,30 +961,30 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
         <v>107</v>
-      </c>
-      <c r="B8" t="s">
-        <v>108</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -987,44 +1017,44 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
         <v>81</v>
-      </c>
-      <c r="B13" t="s">
-        <v>82</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1032,13 +1062,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1046,27 +1076,27 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" t="s">
         <v>102</v>
-      </c>
-      <c r="B16" t="s">
-        <v>103</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1335,282 +1365,381 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" t="s">
         <v>141</v>
-      </c>
-      <c r="C48" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="D51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="D53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D56" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B58" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C58" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B59" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C59" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B60" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C60" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" t="s">
+        <v>93</v>
+      </c>
+      <c r="D64" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" t="s">
         <v>148</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C68" t="s">
         <v>153</v>
       </c>
-      <c r="C63" t="s">
-        <v>154</v>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/opcion-modulos-paneles/www/data/diccionario_cod.variable.xlsx
+++ b/opcion-modulos-paneles/www/data/diccionario_cod.variable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facun\OneDrive\Documentos\GitHub\ceped-data\opcion-modulos-paneles\www\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\CEPED home office\ceped-data\opcion-modulos-paneles\www\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164FA44B-175F-4CC4-9738-65C4BB382C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4B204D-5891-4122-ADFF-90EDBB72F1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2790" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -395,18 +395,6 @@
     <t>IPC por Ondas (2017 = 100) - para deflctar datos de EPH</t>
   </si>
   <si>
-    <t>Esta variable indica la evolución mensual del Índice de Precios al Consumidor para GBA (Enero 2006 = 100).</t>
-  </si>
-  <si>
-    <t>Esta variable indica la evolución anual del Índice de Precios al Consumidor para GBA (2017 = 100).</t>
-  </si>
-  <si>
-    <t>Esta variable indica la evolución del Índice de Precios al Consumidor para GBA (2017 = 100). Se han promediado los valores mensuales para facilitar su uso para deflactar los datos de ingresos de la EPH.</t>
-  </si>
-  <si>
-    <t>Esta variable indica la evolución anual del Índices de Precios al Consumidor para GBA (2017 = 100). Se han promediado los valores mensuales para facilitar su uso para deflactar los datos de ingresos de la EPH.</t>
-  </si>
-  <si>
     <t>t_actividad_puntual</t>
   </si>
   <si>
@@ -528,6 +516,18 @@
   </si>
   <si>
     <t>eph_categoria_ocupacional_pok</t>
+  </si>
+  <si>
+    <t>Esta variable indica la evolución anual del Índice de Precios al Consumidor (2017 = 100). La fuente de los datos presentados corresponde en primer lugar a la información publicada por INDEC para GBA hasta 2007. Luego, al índice elaborado por CIFRA, a partir de la evolución del IPC de órganos de estadística provinciales no intervenidos hasta abril de 2016. A partir de entonces se presentan los datos elaborados por INDEC para GBA hasta diciembre de 2016, momento en el cual se toma la información de cobertura nacional publicada por el mismo organismo.</t>
+  </si>
+  <si>
+    <t>Esta variable indica la evolución mensual del Índice de Precios al Consumidor (Enero 2006 = 100). La fuente de los datos presentados corresponde en primer lugar a la información publicada por INDEC para GBA hasta 2007. Luego, al índice elaborado por CIFRA, a partir de la evolución del IPC de órganos de estadística provinciales no intervenidos hasta abril de 2016. A partir de entonces se presentan los datos elaborados por INDEC para GBA hasta diciembre de 2016, momento en el cual se toma la información de cobertura nacional publicada por el mismo organismo.</t>
+  </si>
+  <si>
+    <t>Esta variable indica la evolución del Índice de Precios al Consumidor (2017 = 100). Se han promediado los valores mensuales para facilitar su uso para deflactar los datos de ingresos de la EPH. La fuente de los datos presentados corresponde en primer lugar a la información publicada por INDEC para GBA hasta 2007. Luego, al índice elaborado por CIFRA, a partir de la evolución del IPC de órganos de estadística provinciales no intervenidos hasta abril de 2016. A partir de entonces se presentan los datos elaborados por INDEC para GBA hasta diciembre de 2016, momento en el cual se toma la información de cobertura nacional publicada por el mismo organismo.</t>
+  </si>
+  <si>
+    <t>Esta variable indica la evolución anual del Índices de Precios al Consumidor (2017 = 100). Se han promediado los valores mensuales para facilitar su uso para deflactar los datos de ingresos de la EPH. La fuente de los datos presentados corresponde en primer lugar a la información publicada por INDEC para GBA hasta 2007. Luego, al índice elaborado por CIFRA, a partir de la evolución del IPC de órganos de estadística provinciales no intervenidos hasta abril de 2016. A partir de entonces se presentan los datos elaborados por INDEC para GBA hasta diciembre de 2016, momento en el cual se toma la información de cobertura nacional publicada por el mismo organismo.</t>
   </si>
 </sst>
 </file>
@@ -863,19 +863,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="68.5703125" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" customWidth="1"/>
-    <col min="4" max="4" width="71.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="68.5546875" customWidth="1"/>
+    <col min="3" max="3" width="53.44140625" customWidth="1"/>
+    <col min="4" max="4" width="71.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -889,7 +889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -903,7 +903,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -917,7 +917,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -931,7 +931,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -945,7 +945,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -959,7 +959,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -973,7 +973,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -987,7 +987,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -1363,95 +1363,95 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" t="s">
         <v>129</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" t="s">
         <v>133</v>
       </c>
-      <c r="C41" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>130</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" t="s">
         <v>134</v>
       </c>
-      <c r="C42" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>131</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" t="s">
         <v>135</v>
       </c>
-      <c r="C43" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" t="s">
         <v>136</v>
       </c>
-      <c r="C44" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="C48" t="s">
         <v>137</v>
       </c>
-      <c r="C45" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>126</v>
-      </c>
-      <c r="B46" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>127</v>
-      </c>
-      <c r="B47" t="s">
-        <v>139</v>
-      </c>
-      <c r="C47" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>128</v>
-      </c>
-      <c r="B48" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -1459,13 +1459,13 @@
         <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D49" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -1473,13 +1473,13 @@
         <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D50" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -1487,13 +1487,13 @@
         <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D51" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -1501,13 +1501,13 @@
         <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D52" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -1515,112 +1515,112 @@
         <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D53" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>156</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B58" t="s">
         <v>156</v>
       </c>
-      <c r="C54" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="C58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>157</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B59" t="s">
         <v>157</v>
       </c>
-      <c r="C55" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="C59" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>158</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B60" t="s">
         <v>158</v>
       </c>
-      <c r="C56" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="C60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>159</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B61" t="s">
         <v>159</v>
       </c>
-      <c r="C57" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="C61" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>160</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B62" t="s">
         <v>160</v>
       </c>
-      <c r="C58" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="C62" t="s">
         <v>161</v>
       </c>
-      <c r="B59" t="s">
-        <v>161</v>
-      </c>
-      <c r="C59" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>162</v>
-      </c>
-      <c r="B60" t="s">
-        <v>162</v>
-      </c>
-      <c r="C60" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>163</v>
-      </c>
-      <c r="B61" t="s">
-        <v>163</v>
-      </c>
-      <c r="C61" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B62" t="s">
-        <v>164</v>
-      </c>
-      <c r="C62" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>90</v>
       </c>
@@ -1631,10 +1631,10 @@
         <v>93</v>
       </c>
       <c r="D63" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>91</v>
       </c>
@@ -1645,10 +1645,10 @@
         <v>93</v>
       </c>
       <c r="D64" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -1659,10 +1659,10 @@
         <v>93</v>
       </c>
       <c r="D65" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -1673,73 +1673,73 @@
         <v>93</v>
       </c>
       <c r="D66" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>142</v>
       </c>
-      <c r="B67" t="s">
-        <v>154</v>
-      </c>
-      <c r="C67" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>143</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B72" t="s">
         <v>148</v>
       </c>
-      <c r="C68" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>144</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="C72" t="s">
         <v>149</v>
-      </c>
-      <c r="C69" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>145</v>
-      </c>
-      <c r="B70" t="s">
-        <v>150</v>
-      </c>
-      <c r="C70" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>146</v>
-      </c>
-      <c r="B71" t="s">
-        <v>151</v>
-      </c>
-      <c r="C71" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>147</v>
-      </c>
-      <c r="B72" t="s">
-        <v>152</v>
-      </c>
-      <c r="C72" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/opcion-modulos-paneles/www/data/diccionario_cod.variable.xlsx
+++ b/opcion-modulos-paneles/www/data/diccionario_cod.variable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\CEPED home office\ceped-data\opcion-modulos-paneles\www\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facun\OneDrive\Documentos\GitHub\ceped-data\opcion-modulos-paneles\www\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4B204D-5891-4122-ADFF-90EDBB72F1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB9DCD2-B0FF-4672-A2E0-1CD3CFDF1985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="165">
   <si>
     <t>IPC_2005</t>
   </si>
@@ -513,9 +513,6 @@
   </si>
   <si>
     <t>Desconocidos</t>
-  </si>
-  <si>
-    <t>eph_categoria_ocupacional_pok</t>
   </si>
   <si>
     <t>Esta variable indica la evolución anual del Índice de Precios al Consumidor (2017 = 100). La fuente de los datos presentados corresponde en primer lugar a la información publicada por INDEC para GBA hasta 2007. Luego, al índice elaborado por CIFRA, a partir de la evolución del IPC de órganos de estadística provinciales no intervenidos hasta abril de 2016. A partir de entonces se presentan los datos elaborados por INDEC para GBA hasta diciembre de 2016, momento en el cual se toma la información de cobertura nacional publicada por el mismo organismo.</t>
@@ -863,19 +860,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="2" width="68.5546875" customWidth="1"/>
-    <col min="3" max="3" width="53.44140625" customWidth="1"/>
-    <col min="4" max="4" width="71.33203125" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="68.5703125" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" customWidth="1"/>
+    <col min="4" max="4" width="71.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -889,7 +886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -903,7 +900,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -917,7 +914,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -931,7 +928,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -945,7 +942,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -959,7 +956,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -973,7 +970,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -987,7 +984,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1001,7 +998,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1015,7 +1012,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -1029,7 +1026,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -1043,7 +1040,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -1057,7 +1054,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1071,7 +1068,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1085,7 +1082,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -1099,7 +1096,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1110,7 +1107,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1121,7 +1118,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1132,7 +1129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1143,7 +1140,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1154,7 +1151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1165,7 +1162,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1176,7 +1173,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1187,7 +1184,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1198,7 +1195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1209,7 +1206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1220,7 +1217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1231,7 +1228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1242,7 +1239,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1253,7 +1250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1264,7 +1261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -1275,7 +1272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1286,7 +1283,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -1297,7 +1294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -1308,7 +1305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -1319,7 +1316,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -1330,7 +1327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -1341,7 +1338,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1352,7 +1349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -1363,7 +1360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -1374,7 +1371,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -1385,7 +1382,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -1396,7 +1393,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -1407,7 +1404,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>121</v>
       </c>
@@ -1418,7 +1415,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>122</v>
       </c>
@@ -1429,7 +1426,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>123</v>
       </c>
@@ -1440,7 +1437,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>124</v>
       </c>
@@ -1451,7 +1448,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -1465,7 +1462,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -1479,7 +1476,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -1493,7 +1490,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -1507,7 +1504,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -1521,7 +1518,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>152</v>
       </c>
@@ -1529,10 +1526,10 @@
         <v>152</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -1540,10 +1537,10 @@
         <v>153</v>
       </c>
       <c r="C55" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>154</v>
       </c>
@@ -1551,10 +1548,10 @@
         <v>154</v>
       </c>
       <c r="C56" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -1562,10 +1559,10 @@
         <v>155</v>
       </c>
       <c r="C57" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>156</v>
       </c>
@@ -1573,10 +1570,10 @@
         <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>157</v>
       </c>
@@ -1584,10 +1581,10 @@
         <v>157</v>
       </c>
       <c r="C59" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>158</v>
       </c>
@@ -1595,10 +1592,10 @@
         <v>158</v>
       </c>
       <c r="C60" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>159</v>
       </c>
@@ -1606,10 +1603,10 @@
         <v>159</v>
       </c>
       <c r="C61" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>160</v>
       </c>
@@ -1617,10 +1614,10 @@
         <v>160</v>
       </c>
       <c r="C62" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>90</v>
       </c>
@@ -1631,10 +1628,10 @@
         <v>93</v>
       </c>
       <c r="D63" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>91</v>
       </c>
@@ -1645,10 +1642,10 @@
         <v>93</v>
       </c>
       <c r="D64" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -1659,10 +1656,10 @@
         <v>93</v>
       </c>
       <c r="D65" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -1673,10 +1670,10 @@
         <v>93</v>
       </c>
       <c r="D66" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>138</v>
       </c>
@@ -1687,7 +1684,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>139</v>
       </c>
@@ -1698,7 +1695,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>140</v>
       </c>
@@ -1709,7 +1706,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>141</v>
       </c>
@@ -1720,7 +1717,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>142</v>
       </c>
@@ -1731,7 +1728,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>143</v>
       </c>
